--- a/xlsx/内华达州_intext.xlsx
+++ b/xlsx/内华达州_intext.xlsx
@@ -15,827 +15,815 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>内华达州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>内华达州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A3%AE%E5%9F%8E_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡森城 (内华达州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>拉斯维加斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Nevada</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Nevada</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%C2%B7%E6%A1%91%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>布莱恩·桑多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Nevada</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Nevada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mark_Hutchison</t>
+  </si>
+  <si>
+    <t>en-Mark Hutchison</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Nevada</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Nevada</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%81%A9%C2%B7%E6%B5%B7%E5%8B%92</t>
+  </si>
+  <si>
+    <t>狄恩·海勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Nevada</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Nevada</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>太平洋时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
+  </si>
+  <si>
+    <t>UTC-8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%8C%E5%8D%9A</t>
+  </si>
+  <si>
+    <t>赌博</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>内华达山脉 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%98%8E%E9%A3%9B%E8%A1%8C%E7%89%A9</t>
+  </si>
+  <si>
+    <t>不明飞行物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/51%E5%8D%80</t>
+  </si>
+  <si>
+    <t>51区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%B6</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%9F%8E_(%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>弗吉尼亚城 (内华达州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BD%A9</t>
+  </si>
+  <si>
+    <t>博彩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱德华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>峡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E6%B0%B4%E5%A3%A9</t>
+  </si>
+  <si>
+    <t>胡佛水坝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%A5%B6</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%93%83%E8%96%AF</t>
+  </si>
+  <si>
+    <t>马铃薯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
+  </si>
+  <si>
+    <t>出版</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%94%9F%E6%B4%BB</t>
+  </si>
+  <si>
+    <t>夜生活</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%8C%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>赌场</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MGM_Mirage</t>
+  </si>
+  <si>
+    <t>en-MGM Mirage</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Las_Vegas_Sands</t>
+  </si>
+  <si>
+    <t>en-Las Vegas Sands</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harrah%27s_Entertainment</t>
+  </si>
+  <si>
+    <t>en-Harrah's Entertainment</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BA%A4%E6%98%93</t>
+  </si>
+  <si>
+    <t>性交易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%A9%9A%E7%8E%87</t>
+  </si>
+  <si>
+    <t>离婚率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%B8%82</t>
+  </si>
+  <si>
+    <t>独立市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>内华达州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>雷诺 (内华达州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89</t>
+  </si>
+  <si>
+    <t>拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD</t>
+  </si>
+  <si>
+    <t>维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北拉斯维加斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>亨德森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B8%95%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斯帕克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>埃尔科</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sierra_Nevada_College</t>
+  </si>
+  <si>
+    <t>en-Sierra Nevada College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/University_of_Southern_Nevada</t>
+  </si>
+  <si>
+    <t>en-University of Southern Nevada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Touro_University_Nevada</t>
+  </si>
+  <si>
+    <t>en-Touro University Nevada</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E6%B3%89%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>深泉学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>内华达大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%A4%A7%E5%AD%A6%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>内华达大学拉斯维加斯分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%A4%A7%E5%AD%A6%E9%87%8C%E8%AF%BA%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>内华达大学里诺分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%A4%A7%E5%AD%B8%E9%9B%B7%E8%AB%BE%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>内华达大学雷诺分校</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/College_of_Southern_Nevada</t>
+  </si>
+  <si>
+    <t>en-College of Southern Nevada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Great_Basin_College</t>
+  </si>
+  <si>
+    <t>en-Great Basin College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Truckee_Meadows_Community_College</t>
+  </si>
+  <si>
+    <t>en-Truckee Meadows Community College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Western_Nevada_College</t>
+  </si>
+  <si>
+    <t>en-Western Nevada College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Desert_Research_Institute</t>
+  </si>
+  <si>
+    <t>en-Desert Research Institute</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Slots-A-Fun</t>
+  </si>
+  <si>
+    <t>Slots-A-Fun</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%82%BA%E6%97%85%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>利为旅酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%AB%E5%B1%A4%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>同温层酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%8B%89%E6%96%AF%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>哈拉斯酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%88%92%E4%BA%9E%E8%B3%AD%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>奥舒亚赌场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>巴黎酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>撒哈拉酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E5%8B%92%E6%B5%B7%E7%81%A3%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>曼德勒海湾酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E8%B3%AD%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>比尔赌场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%B6%B4%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>火鹤酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E8%8A%B1%E5%9C%92%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>热带花园酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E9%A9%BF%E7%AB%99%E8%B5%8C%E5%9C%BA%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>德克萨斯驿站赌场酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%B3%AD%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>皇家赌场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%85%8B%E7%B4%A2%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>卢克索酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E4%B8%AD%E5%8A%8D%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>石中剑酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84-%E7%B4%90%E7%B4%84%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>纽约-纽约酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89%E7%84%A6%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>贝拉焦酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E5%B3%B6%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>金银岛酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%9C%B0%E5%8D%A1%E7%BE%85%E9%85%92%E5%BA%97</t>
+  </si>
+  <si>
+    <t>蒙地卡罗酒店</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8D%A1%E5%80%AB%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>麦卡伦国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>全美航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>西南航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/15%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>15号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>80号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/University_of_Nevada_at_Las_Vegas</t>
+  </si>
+  <si>
+    <t>en-University of Nevada at Las Vegas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
+  </si>
+  <si>
+    <t>棒球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF51%E5%8D%80</t>
+  </si>
+  <si>
+    <t>拉斯维加斯51区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
+  </si>
+  <si>
+    <t>洛杉矶道奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>帕特·尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E9%98%BF%E5%8A%A0%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>安德烈·阿加西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%8C%B2%C2%B7%E5%A5%A7%E6%96%AF%E6%9C%8B</t>
+  </si>
+  <si>
+    <t>奥兹·奥斯朋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>罗伯特·路易斯·史蒂文森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E8%89%BE%E7%91%9E%E5%85%8B%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>米尔顿·艾瑞克森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E7%9C%A0</t>
+  </si>
+  <si>
+    <t>催眠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Florida</t>
+  </si>
+  <si>
+    <t>Template talk-Florida</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>內華達州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A3%AE%E5%9F%8E_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡森城 (內華達州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>拉斯維加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Nevada</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Nevada</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%C2%B7%E6%A1%91%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>布萊恩·桑多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Nevada</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Nevada</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mark_Hutchison</t>
-  </si>
-  <si>
-    <t>en-Mark Hutchison</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Nevada</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Nevada</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%81%A9%C2%B7%E6%B5%B7%E5%8B%92</t>
-  </si>
-  <si>
-    <t>狄恩·海勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Nevada</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Nevada</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>太平洋时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
-  </si>
-  <si>
-    <t>UTC-8</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
-  </si>
-  <si>
-    <t>UTC-7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%8C%E5%8D%9A</t>
-  </si>
-  <si>
-    <t>赌博</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>內華達山脈 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%98%8E%E9%A3%9B%E8%A1%8C%E7%89%A9</t>
-  </si>
-  <si>
-    <t>不明飛行物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/51%E5%8D%80</t>
-  </si>
-  <si>
-    <t>51區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%B6</t>
-  </si>
-  <si>
-    <t>银</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%9F%8E_(%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>弗吉尼亚城 (内华达州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BD%A9</t>
-  </si>
-  <si>
-    <t>博彩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国共和党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱德华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚利桑纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>峡谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E6%B0%B4%E5%A3%A9</t>
-  </si>
-  <si>
-    <t>胡佛水壩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89</t>
-  </si>
-  <si>
-    <t>牛肉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%A5%B6</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%93%83%E8%96%AF</t>
-  </si>
-  <si>
-    <t>马铃薯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
-  </si>
-  <si>
-    <t>出版</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%94%9F%E6%B4%BB</t>
-  </si>
-  <si>
-    <t>夜生活</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>拉斯维加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%8C%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>赌场</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MGM_Mirage</t>
-  </si>
-  <si>
-    <t>en-MGM Mirage</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Las_Vegas_Sands</t>
-  </si>
-  <si>
-    <t>en-Las Vegas Sands</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Harrah%27s_Entertainment</t>
-  </si>
-  <si>
-    <t>en-Harrah's Entertainment</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BA%A4%E6%98%93</t>
-  </si>
-  <si>
-    <t>性交易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%A9%9A%E7%8E%87</t>
-  </si>
-  <si>
-    <t>离婚率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%B8%82</t>
-  </si>
-  <si>
-    <t>獨立市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>内华达州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>雷諾 (內華達州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89</t>
-  </si>
-  <si>
-    <t>拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD</t>
-  </si>
-  <si>
-    <t>維</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北拉斯維加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>亨德森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B8%95%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斯帕克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>埃爾科</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sierra_Nevada_College</t>
-  </si>
-  <si>
-    <t>en-Sierra Nevada College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/University_of_Southern_Nevada</t>
-  </si>
-  <si>
-    <t>en-University of Southern Nevada</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Touro_University_Nevada</t>
-  </si>
-  <si>
-    <t>en-Touro University Nevada</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E6%B3%89%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>深泉学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>內華達大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%A4%A7%E5%AD%A6%E6%8B%89%E6%96%AF%E7%BB%B4%E5%8A%A0%E6%96%AF%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>内华达大学拉斯维加斯分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%A4%A7%E5%AD%A6%E9%87%8C%E8%AF%BA%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>内华达大学里诺分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%A4%A7%E5%AD%B8%E9%9B%B7%E8%AB%BE%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>內華達大學雷諾分校</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/College_of_Southern_Nevada</t>
-  </si>
-  <si>
-    <t>en-College of Southern Nevada</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Great_Basin_College</t>
-  </si>
-  <si>
-    <t>en-Great Basin College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Truckee_Meadows_Community_College</t>
-  </si>
-  <si>
-    <t>en-Truckee Meadows Community College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Western_Nevada_College</t>
-  </si>
-  <si>
-    <t>en-Western Nevada College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Desert_Research_Institute</t>
-  </si>
-  <si>
-    <t>en-Desert Research Institute</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>賭場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Slots-A-Fun</t>
-  </si>
-  <si>
-    <t>Slots-A-Fun</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%82%BA%E6%97%85%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>利為旅酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%AB%E5%B1%A4%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>同溫層酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%8B%89%E6%96%AF%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>哈拉斯酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%88%92%E4%BA%9E%E8%B3%AD%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>奧舒亞賭場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>巴黎酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>撒哈拉酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E5%8B%92%E6%B5%B7%E7%81%A3%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>曼德勒海灣酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E8%B3%AD%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>比爾賭場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%B6%B4%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>火鶴酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E8%8A%B1%E5%9C%92%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>熱帶花園酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E9%A9%BF%E7%AB%99%E8%B5%8C%E5%9C%BA%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>德克萨斯驿站赌场酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%B3%AD%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>皇家賭場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%85%8B%E7%B4%A2%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>盧克索酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E4%B8%AD%E5%8A%8D%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>石中劍酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84-%E7%B4%90%E7%B4%84%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>紐約-紐約酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89%E7%84%A6%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>貝拉焦酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E5%B3%B6%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>金銀島酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%9C%B0%E5%8D%A1%E7%BE%85%E9%85%92%E5%BA%97</t>
-  </si>
-  <si>
-    <t>蒙地卡羅酒店</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8D%A1%E5%80%AB%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>麥卡倫國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>全美航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>西南航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/15%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>15號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>80號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/University_of_Nevada_at_Las_Vegas</t>
-  </si>
-  <si>
-    <t>en-University of Nevada at Las Vegas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
-  </si>
-  <si>
-    <t>棒球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF51%E5%8D%80</t>
-  </si>
-  <si>
-    <t>拉斯維加斯51區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
-  </si>
-  <si>
-    <t>洛杉磯道奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>帕特·尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E9%98%BF%E5%8A%A0%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>安德烈·阿加西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%8C%B2%C2%B7%E5%A5%A7%E6%96%AF%E6%9C%8B</t>
-  </si>
-  <si>
-    <t>奧茲·奧斯朋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>羅伯特·路易斯·史蒂文森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E8%89%BE%E7%91%9E%E5%85%8B%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>米尔顿·艾瑞克森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E7%9C%A0</t>
-  </si>
-  <si>
-    <t>催眠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Florida</t>
-  </si>
-  <si>
-    <t>Template talk-Florida</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內華達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E%E5%B8%82%E9%95%87%E6%9D%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -851,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克拉克縣 (內華達州)</t>
+    <t>克拉克县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>道格拉斯縣 (內華達州)</t>
+    <t>道格拉斯县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E6%A2%85%E6%8B%89%E8%BE%BE%E5%8E%BF_(%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E)</t>
@@ -869,55 +857,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E5%8D%A1%E7%B8%A3</t>
   </si>
   <si>
-    <t>尤里卡縣</t>
+    <t>尤里卡县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (內華達州)</t>
+    <t>洪堡县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%BE%B7%E7%B8%A3</t>
   </si>
   <si>
-    <t>蘭德縣</t>
+    <t>兰德县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯縣 (內華達州)</t>
+    <t>林肯县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊昂縣 (內華達州)</t>
+    <t>莱昂县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%B4%8D%E5%8B%92%E7%88%BE%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米納勒爾縣 (內華達州)</t>
+    <t>米纳勒尔县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E7%B8%A3</t>
   </si>
   <si>
-    <t>奈縣</t>
+    <t>奈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%88%88%E7%B8%A3</t>
   </si>
   <si>
-    <t>潘興縣</t>
+    <t>潘兴县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%89%98%E9%87%8C%E7%B8%A3</t>
   </si>
   <si>
-    <t>斯托里縣</t>
+    <t>斯托里县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%82%96%E5%8E%BF</t>
@@ -929,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%9D%BE%E7%B8%A3_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>白松縣 (內華達州)</t>
+    <t>白松县 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -989,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1193,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1223,19 +1211,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1277,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1289,25 +1277,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1337,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1355,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1367,7 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2147,7 +2141,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2292,7 +2286,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -2637,7 +2631,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>9</v>
@@ -2663,13 +2657,13 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="n">
         <v>66</v>
-      </c>
-      <c r="G33" t="n">
-        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2692,10 +2686,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2721,10 +2715,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2750,10 +2744,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2779,10 +2773,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2808,10 +2802,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2837,10 +2831,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2866,10 +2860,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
@@ -2895,10 +2889,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2924,10 +2918,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2953,10 +2947,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
         <v>71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>72</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2982,10 +2976,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3011,10 +3005,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3069,10 +3063,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3098,10 +3092,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3127,10 +3121,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3156,10 +3150,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3185,10 +3179,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3214,10 +3208,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3243,10 +3237,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3272,10 +3266,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3301,10 +3295,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3330,10 +3324,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3359,10 +3353,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3388,10 +3382,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3417,10 +3411,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3446,10 +3440,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3475,10 +3469,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3504,10 +3498,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3533,10 +3527,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3562,10 +3556,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3591,10 +3585,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3620,10 +3614,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3649,10 +3643,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3678,10 +3672,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3707,10 +3701,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3736,10 +3730,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3765,10 +3759,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3794,10 +3788,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3823,10 +3817,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>13</v>
@@ -3852,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3881,10 +3875,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3910,10 +3904,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3939,10 +3933,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3968,10 +3962,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3997,10 +3991,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>30</v>
@@ -4026,10 +4020,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>44</v>
@@ -4055,10 +4049,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>9</v>
@@ -4084,10 +4078,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>22</v>
@@ -4113,10 +4107,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4142,10 +4136,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4171,10 +4165,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4200,10 +4194,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
         <v>83</v>
-      </c>
-      <c r="F86" t="s">
-        <v>84</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4229,10 +4223,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4258,10 +4252,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4287,10 +4281,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4316,10 +4310,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4345,10 +4339,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4374,10 +4368,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4403,10 +4397,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4432,10 +4426,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4461,10 +4455,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4490,10 +4484,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4519,10 +4513,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4548,10 +4542,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4577,10 +4571,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4606,10 +4600,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4635,10 +4629,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -4664,10 +4658,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4693,10 +4687,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4722,10 +4716,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4751,10 +4745,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4780,10 +4774,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4809,10 +4803,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4838,10 +4832,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4867,10 +4861,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4896,10 +4890,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4925,10 +4919,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4954,10 +4948,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4983,10 +4977,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5012,10 +5006,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5041,10 +5035,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5070,10 +5064,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5099,10 +5093,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5128,10 +5122,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5157,10 +5151,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5186,10 +5180,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5215,10 +5209,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5244,10 +5238,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5273,10 +5267,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5302,10 +5296,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5331,10 +5325,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5360,10 +5354,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5389,10 +5383,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5418,10 +5412,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5447,10 +5441,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5476,10 +5470,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5505,10 +5499,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5534,10 +5528,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5563,10 +5557,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5592,10 +5586,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5621,10 +5615,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5650,10 +5644,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5679,10 +5673,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5708,10 +5702,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -5737,13 +5731,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5766,7 +5760,7 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
@@ -5795,13 +5789,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5824,13 +5818,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5853,13 +5847,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5882,10 +5876,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5911,10 +5905,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5940,10 +5934,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5969,10 +5963,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5998,10 +5992,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6027,10 +6021,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6056,10 +6050,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6085,10 +6079,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6114,10 +6108,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6143,13 +6137,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6172,13 +6166,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6201,10 +6195,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6230,10 +6224,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6259,10 +6253,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6288,10 +6282,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6317,10 +6311,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6346,10 +6340,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6375,10 +6369,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6404,10 +6398,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6433,10 +6427,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6462,10 +6456,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6491,10 +6485,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6520,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6549,10 +6543,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6578,10 +6572,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6607,10 +6601,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6636,13 +6630,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6665,13 +6659,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6694,10 +6688,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6723,10 +6717,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6752,10 +6746,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6781,10 +6775,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6810,10 +6804,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6839,10 +6833,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6868,10 +6862,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6897,10 +6891,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6926,10 +6920,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6955,10 +6949,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6984,10 +6978,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7013,10 +7007,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7042,10 +7036,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7071,10 +7065,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7100,10 +7094,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7129,10 +7123,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7158,10 +7152,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7187,10 +7181,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7216,10 +7210,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7245,10 +7239,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7274,10 +7268,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7303,10 +7297,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7332,10 +7326,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7361,10 +7355,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7390,13 +7384,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>91</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7419,13 +7413,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7448,10 +7442,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7477,10 +7471,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7506,10 +7500,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7535,10 +7529,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7564,10 +7558,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7593,13 +7587,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -7622,13 +7616,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>100</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -7651,13 +7645,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7680,13 +7674,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7709,13 +7703,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7738,10 +7732,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7767,10 +7761,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7796,10 +7790,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7825,10 +7819,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7854,10 +7848,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7883,10 +7877,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7912,10 +7906,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7941,10 +7935,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7970,10 +7964,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7999,10 +7993,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8028,10 +8022,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8057,10 +8051,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8086,10 +8080,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8115,10 +8109,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8144,10 +8138,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8173,10 +8167,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8202,10 +8196,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8231,10 +8225,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8260,10 +8254,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8289,10 +8283,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8318,10 +8312,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8347,10 +8341,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8376,10 +8370,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8405,13 +8399,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8434,13 +8428,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8463,10 +8457,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8492,10 +8486,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8521,10 +8515,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8550,10 +8544,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8579,18 +8573,47 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
       </c>
       <c r="I237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>237</v>
+      </c>
+      <c r="E238" t="s">
+        <v>268</v>
+      </c>
+      <c r="F238" t="s">
+        <v>448</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>4</v>
+      </c>
+      <c r="I238" t="n">
         <v>3</v>
       </c>
     </row>
